--- a/Standard StaR-Eau/dictionnaires de donnees/Matrice_StaREau_SIG_ASSAINISSEMENT.xlsx
+++ b/Standard StaR-Eau/dictionnaires de donnees/Matrice_StaREau_SIG_ASSAINISSEMENT.xlsx
@@ -5,29 +5,29 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Lisez-moi" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Canalisation assainissement" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Regard assainissement" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Canalisation branchement" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Pièce réseau ass" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Point de collecte" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Raccord assainissement" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Prétraitement" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Poste pompage" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Point mesure" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="Point prélèvement" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="Ouvrage spécial" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="Chambre dépollution" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="Equipement" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="Station traitement EU" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="Exutoire" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="Engouffrement surface" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="Engouffrement linéaire" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="Engouffrement poncuel" sheetId="19" state="visible" r:id="rId21"/>
-    <sheet name="Bassin" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="Lisez-moi" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Canalisation assainissement" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Regard assainissement" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Canalisation branchement" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Pièce réseau ass" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Point de collecte" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Raccord assainissement" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Prétraitement" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Poste pompage" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Point mesure" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Point prélèvement" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Ouvrage spécial" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Chambre dépollution" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Equipement" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Station traitement EU" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Exutoire" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Engouffrement surface" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Engouffrement linéaire" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Engouffrement poncuel" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Bassin" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -41,16 +41,18 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Auteur inconnu</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -549,7 +551,7 @@
     <t xml:space="preserve">Type d'usager raccordé : industriel, domestique, commercial, tertiaire, médical</t>
   </si>
   <si>
-    <t xml:space="preserve">ass_type_usager</t>
+    <t xml:space="preserve">com_type_usager</t>
   </si>
   <si>
     <t xml:space="preserve">Matériau</t>
@@ -1315,14 +1317,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1359,7 +1362,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1367,7 +1370,7 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1375,14 +1378,14 @@
     <font>
       <u val="single"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1431,14 +1434,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1494,7 +1497,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1508,11 +1511,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1522,7 +1520,7 @@
     <font>
       <u val="single"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1530,7 +1528,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1587,18 +1585,14 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1703,24 +1697,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1728,451 +1726,451 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2180,91 +2178,91 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2342,181 +2340,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
-  <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="0" t="0" r="0" b="0"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="0" t="0" r="0" b="0"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2532,171 +2355,171 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="5" t="str">
         <f aca="false">'Canalisation assainissement'!B2</f>
         <v>Canalisation assainissement</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="5" t="str">
         <f aca="false">'Canalisation assainissement'!B3</f>
         <v>Ensemble de tuyaux joints par leurs extrémités, de caractéristiques physiques (diamètre, matériau, etc.) identiques, représentées spatialement par une ligne.</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f aca="false">'Canalisation assainissement'!B6</f>
         <v>Ligne</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <f aca="false">'Regard assainissement'!B3</f>
         <v>Enceinte munie d’un tampon amovible, réalisée sur un branchement ou un collecteur.</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <f aca="false">COUNTA('Regard assainissement'!A8:A20)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <f aca="false">'Canalisation branchement'!B1</f>
         <v>ass_canalisation_branchement</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <f aca="false">'Canalisation branchement'!B3</f>
         <v>Ensemble des éléments physiques assurant le raccordement entre le point de collecte et le réseau d’assainissement</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f aca="false">'Canalisation branchement'!B6</f>
         <v>Ligne</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <f aca="false">COUNTA('Canalisation branchement'!A8:A16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="5" t="str">
         <f aca="false">'Pièce réseau ass'!B3</f>
-        <v>Pièces sur canalisations principales </v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>Pièces sur canalisations principales</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <f aca="false">COUNTA('Pièce réseau ass'!A8:A20)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="5" t="str">
         <f aca="false">'Point de collecte'!B3</f>
-        <v>Interface physique fixe en amont de laquelle le service public de l’eau n’a plus la responsabilité légale pleine et entière du service  ou des infrastructures </v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>Interface physique fixe en amont de laquelle le service public de l’eau n’a plus la responsabilité légale pleine et entière du service  ou des infrastructures</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="5" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="5" t="str">
         <f aca="false">'Raccord assainissement'!B3</f>
         <v>Pièce de jonction entre la canalisation principale et la canalisation de branchement</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="5" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <f aca="false">COUNTA('Raccord assainissement'!A9:A20)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <f aca="false">Prétraitement!B3</f>
         <v>Les prétraitements ont pour objectif d'éliminer les éléments les plus grossiers. Il s'agit des déchets volumineux (dégrillage), des sables et graviers (dessablage) et des graisses (dégraissage-déshuilage).</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="5" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">COUNTA(Prétraitement!A8:A20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="7" t="str">
         <f aca="false">'Poste pompage'!B3</f>
         <v>Bâtiment, structures et équipements utilisés pour transférer les eaux usées par une conduite de relèvement ou tout autre dispositif de relevage.
 On distingue habituellement plusieurs types : 
@@ -2704,247 +2527,247 @@
 • station de relèvement, 
 • station de pompage en ligne.</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="5" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <f aca="false">COUNTA('Poste pompage'!A8:A20)</f>
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <f aca="false">'Point mesure'!B3</f>
-        <v>Point de suivi remarquable du fonctionnement d'un ouvrage d'assainissement </v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>Point de suivi remarquable du fonctionnement d'un ouvrage d'assainissement</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="5" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <f aca="false">COUNTA('Point mesure'!A8:A20)</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="5" t="str">
         <f aca="false">'Point prélèvement'!B3</f>
         <v>Emplacement spécifique où des échantillons d'effluents sont prélevés aux fins d'analyses et de tests.</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="5" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <f aca="false">COUNTA('Point prélèvement'!A8:A20)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <f aca="false">'Ouvrage spécial'!B3</f>
         <v>Ouvrage particulier ne rentrant pas dans une autre classe d'entités</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="8" t="str">
         <f aca="false">'Regard assainissement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <f aca="false">COUNTA('Ouvrage spécial'!A8:A20)</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="5" t="str">
         <f aca="false">'Chambre dépollution'!B3</f>
         <v>Une installation ou une structure conçue pour traiter ou réduire la charge polluante des eaux usées ou des effluents avant leur rejet dans l'environnement. Elle est généralement intégrée à un système d'assainissement pour améliorer la qualité des eaux avant qu'elles ne soient rejetées dans les cours d'eau ou les réseaux de collecte.</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="5" t="str">
         <f aca="false">'Poste pompage'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <f aca="false">COUNTA('Chambre dépollution'!A8:A20)</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="5" t="str">
         <f aca="false">Equipement!B3</f>
         <v>Composant associé à un ouvrage, par installation, montage, liaison ou mise en œuvre pour son exploitation afin d’assurer la fonction qui lui est dévolue.</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <f aca="false">COUNTA(Equipement!A8:A20)</f>
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="5" t="str">
         <f aca="false">'Station traitement EU'!B3</f>
         <v>Ensemble des installations chargées de traiter les eaux collectées par le réseau de collecte des eaux usées avant rejet au milieu naturel et dans le respect de la réglementation.</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="5" t="str">
         <f aca="false">'Point prélèvement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <f aca="false">COUNTA('Station traitement EU'!A8:A20)</f>
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="5" t="str">
         <f aca="false">Exutoire!B3</f>
         <v>Point de rejet dans le milieu récepteur</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="5" t="str">
         <f aca="false">'Point prélèvement'!$B$6</f>
         <v>Point</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <f aca="false">COUNTA(Exutoire!A8:A20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="5" t="str">
         <f aca="false">'Engouffrement surface'!B3</f>
         <v>Élément du système d’assainissement permettant l'introduction des eaux de ruissellement</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <f aca="false">COUNTA('Engouffrement surface'!A8:A20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="5" t="str">
         <f aca="false">'Engouffrement linéaire'!B3</f>
         <v>Élément du système d’assainissement permettant l'introduction des eaux de ruissellement</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <f aca="false">COUNTA('Engouffrement linéaire'!A8:A20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="5" t="str">
         <f aca="false">'Engouffrement poncuel'!B3</f>
         <v>Élément du système d’assainissement permettant l'introduction des eaux de ruissellement</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="5" t="str">
         <f aca="false">'Chambre dépollution'!$B$6</f>
-        <v>Point </v>
-      </c>
-      <c r="E19" s="4" t="n">
+        <v>Point</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <f aca="false">COUNTA('Engouffrement poncuel'!A8:A18)</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="5" t="str">
         <f aca="false">Bassin!B3</f>
         <v>Ouvrage retenant momentanément des eaux pendant les périodes pluvieuses, que ce soit des eaux pluviales seules ou un mélange d'eaux pluviales et d'eaux usées.</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <f aca="false">COUNTA(Bassin!A9:A20)</f>
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2992,307 +2815,307 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="57.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="57.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A19"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="103"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="100"/>
+      <c r="I8" s="104"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="100"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="104" t="s">
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="I10" s="105" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="105" t="s">
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="105" t="s">
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="105" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="100"/>
+      <c r="I13" s="39" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="100"/>
+      <c r="I14" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3319,272 +3142,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="58.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="58.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="108"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="104"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="109" t="s">
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="109" t="s">
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="105" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="39" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3614,211 +3437,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="75" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="75" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="75" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="75" width="23.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="75" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="75" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="75" width="46.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="75" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="75" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="75" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="76" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="76" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="76" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="76" width="23.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="76" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="76" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="76" width="46.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="76" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="76" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="76" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="78"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="37" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="38" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="38" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="39" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="111"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="111"/>
+      <c r="D12" s="112"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3845,253 +3668,253 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="54.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="47.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="54.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4118,275 +3941,275 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="32.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="39.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A20"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="112"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="113" t="s">
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="114" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="115" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="116" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="115" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="116" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="38"/>
+      <c r="F13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4413,289 +4236,289 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="116" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="10" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="117" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="11" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="43.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="118" t="str">
+      <c r="C6" s="119" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="120" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="121" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="121" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="121" t="s">
+      <c r="G9" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="120" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="123"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="121" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="121" t="s">
+      <c r="E11" s="120"/>
+      <c r="F11" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="124" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="120" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="120" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="120" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="119" t="s">
+      <c r="F12" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="120" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="38"/>
+      <c r="F13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4722,211 +4545,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="124" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="55.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="35.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="125" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="55.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="127" t="s">
+      <c r="D9" s="129"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="104" t="s">
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="105" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="104"/>
+      <c r="F10" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="130" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4955,235 +4778,235 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="104"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="104"/>
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="104"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="104"/>
+      <c r="F11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5213,234 +5036,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="104"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="104"/>
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="104"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="104"/>
+      <c r="F11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5470,252 +5293,252 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="32.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="104" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="105" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="104"/>
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="104"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="104"/>
+      <c r="F11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5739,312 +5562,312 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="66.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="34.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="66.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="20" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" s="33" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" s="34" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="31" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="39" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="43" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="43" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="38" t="s">
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="39" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="38" t="s">
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="38" t="s">
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="39" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6067,400 +5890,400 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="31.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="106" t="str">
+      <c r="C6" s="107" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="104" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="105" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="94"/>
+      <c r="F9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="135" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="104"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="135" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="104"/>
+      <c r="F11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="134" t="s">
         <v>397</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="135" t="s">
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="136" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="136"/>
-      <c r="I13" s="93"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="137"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="134" t="s">
         <v>403</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="137"/>
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="138"/>
     </row>
     <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="134" t="s">
         <v>406</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="104"/>
+      <c r="G15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="104"/>
+      <c r="F16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="104"/>
+      <c r="F17" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="139" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6490,334 +6313,334 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="32.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" s="53" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="47" t="s">
+      <c r="F13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="54" t="s">
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="55" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6844,167 +6667,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="42.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="14.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="57" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="57" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="57" width="12.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="57" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="57" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="57" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="58" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="42.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="58" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="12.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="58" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="58" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="58" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="62"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="63"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7031,203 +6854,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A20"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="25"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7248,343 +7071,343 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="61.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="42.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="61.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="75" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="76" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" s="75" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" s="76" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" s="75" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" s="76" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" s="75" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" s="76" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" s="75" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" s="76" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" s="75" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" s="76" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" s="75" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" s="76" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="78"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="83"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="84"/>
+    </row>
+    <row r="9" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="43"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="43" t="s">
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="44" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="43"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="43" t="s">
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="44" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="43"/>
+      <c r="G15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="85" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7613,223 +7436,223 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="60.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="60.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A20"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="25"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7856,233 +7679,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="57.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="57.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="F9" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="94"/>
+      <c r="F10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="55" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8109,406 +7932,406 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="57.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="46.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="57.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="52" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A19"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="44"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="100"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="100"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="38"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="38"/>
+      <c r="F11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="100"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="100"/>
+      <c r="F12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="100"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="100"/>
+      <c r="F13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="100"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="38" t="s">
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="100"/>
+      <c r="I14" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="100"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="38" t="s">
+      <c r="G16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="39" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="100"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="100"/>
+      <c r="I18" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Standard StaR-Eau/dictionnaires de donnees/Matrice_StaREau_SIG_ASSAINISSEMENT.xlsx
+++ b/Standard StaR-Eau/dictionnaires de donnees/Matrice_StaREau_SIG_ASSAINISSEMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="1" state="visible" r:id="rId2"/>
@@ -1697,7 +1697,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="147">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2154,15 +2154,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2347,7 +2367,7 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2809,8 +2829,8 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3136,8 +3156,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3431,8 +3451,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3662,8 +3682,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3935,8 +3955,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4153,36 +4173,36 @@
       <c r="I10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="116" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="116" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4230,15 +4250,15 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="117" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="122" width="25.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="11" width="11.44"/>
@@ -4254,7 +4274,7 @@
       <c r="B1" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="123" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="75"/>
@@ -4271,7 +4291,7 @@
       <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="75"/>
       <c r="E2" s="13"/>
       <c r="F2" s="75"/>
@@ -4286,7 +4306,7 @@
       <c r="B3" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="123" t="s">
         <v>328</v>
       </c>
       <c r="D3" s="75"/>
@@ -4303,7 +4323,7 @@
       <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="118"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="75"/>
       <c r="E4" s="13"/>
       <c r="F4" s="75"/>
@@ -4316,7 +4336,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="118"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="75"/>
       <c r="E5" s="13"/>
       <c r="F5" s="75"/>
@@ -4331,7 +4351,7 @@
       <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="124" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
@@ -4373,52 +4393,52 @@
       <c r="J7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="120"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="127"/>
+      <c r="I8" s="125"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="125" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="122" t="s">
+      <c r="E9" s="125"/>
+      <c r="F9" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="122" t="s">
+      <c r="G9" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="125" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4442,56 +4462,56 @@
       <c r="G10" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="123"/>
+      <c r="H10" s="128"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="125" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="126" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="122" t="s">
+      <c r="E11" s="125"/>
+      <c r="F11" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="120"/>
+      <c r="G11" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="125"/>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="129" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="120" t="s">
+      <c r="F12" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="125" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4539,8 +4559,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4548,7 +4568,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="35.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="125" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="130" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.56"/>
@@ -4563,10 +4583,10 @@
       <c r="B1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="126"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="13"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
@@ -4580,8 +4600,8 @@
       <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="13"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
@@ -4595,8 +4615,8 @@
       <c r="B3" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="13"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -4610,8 +4630,8 @@
       <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -4623,8 +4643,8 @@
         <v>53</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="13"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -4642,7 +4662,7 @@
         <f aca="false">HYPERLINK(CONCATENATE("#'Lisez-moi'!A11"),"Retour")</f>
         <v>Retour</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="64"/>
       <c r="F6" s="89"/>
       <c r="G6" s="64"/>
@@ -4693,7 +4713,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="94"/>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="133" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="38"/>
@@ -4710,9 +4730,9 @@
       <c r="C9" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="129"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="94"/>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="133" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="38" t="s">
@@ -4733,13 +4753,13 @@
       <c r="C10" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="133" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="F10" s="133" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -4749,7 +4769,7 @@
       <c r="I10" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="135" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4772,8 +4792,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4783,7 +4803,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.56"/>
@@ -4796,8 +4816,8 @@
       <c r="B1" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="13"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
@@ -4811,8 +4831,8 @@
       <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="13"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
@@ -4826,10 +4846,10 @@
       <c r="B3" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="136" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="13"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -4841,8 +4861,8 @@
         <v>51</v>
       </c>
       <c r="B4" s="99"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -4854,8 +4874,8 @@
         <v>53</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="13"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -4896,7 +4916,7 @@
       <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="137" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="93" t="s">
@@ -5030,7 +5050,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5053,8 +5073,8 @@
       <c r="B1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="13"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
@@ -5068,8 +5088,8 @@
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="13"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
@@ -5083,10 +5103,10 @@
       <c r="B3" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="136" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="13"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -5098,8 +5118,8 @@
         <v>51</v>
       </c>
       <c r="B4" s="99"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -5111,8 +5131,8 @@
         <v>53</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="13"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -5153,7 +5173,7 @@
       <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="137" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="93" t="s">
@@ -5287,7 +5307,7 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5310,8 +5330,8 @@
       <c r="B1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="13"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
@@ -5325,8 +5345,8 @@
       <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="13"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
@@ -5340,10 +5360,10 @@
       <c r="B3" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="136" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="13"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -5355,8 +5375,8 @@
         <v>51</v>
       </c>
       <c r="B4" s="99"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -5368,8 +5388,8 @@
         <v>53</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="13"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -5410,7 +5430,7 @@
       <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="137" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="93" t="s">
@@ -5562,8 +5582,8 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5890,8 +5910,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5914,10 +5934,10 @@
       <c r="B1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="126"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="13"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
@@ -5928,11 +5948,11 @@
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="13"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
@@ -5946,10 +5966,10 @@
       <c r="B3" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="13"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -5961,8 +5981,8 @@
         <v>51</v>
       </c>
       <c r="B4" s="99"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -5974,8 +5994,8 @@
         <v>53</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="13"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -6016,7 +6036,7 @@
       <c r="E7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="137" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="93" t="s">
@@ -6037,7 +6057,7 @@
       <c r="B8" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="139" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -6085,7 +6105,7 @@
       <c r="B10" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="140" t="s">
         <v>389</v>
       </c>
       <c r="D10" s="37" t="s">
@@ -6110,7 +6130,7 @@
       <c r="B11" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="140" t="s">
         <v>393</v>
       </c>
       <c r="D11" s="37" t="s">
@@ -6135,7 +6155,7 @@
       <c r="B12" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="139" t="s">
         <v>397</v>
       </c>
       <c r="D12" s="37" t="s">
@@ -6149,7 +6169,7 @@
         <v>68</v>
       </c>
       <c r="H12" s="57"/>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="141" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6173,7 +6193,7 @@
       <c r="G13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="137"/>
+      <c r="H13" s="142"/>
       <c r="I13" s="94"/>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6203,7 @@
       <c r="B14" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="139" t="s">
         <v>403</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -6197,7 +6217,7 @@
         <v>68</v>
       </c>
       <c r="H14" s="57"/>
-      <c r="I14" s="138"/>
+      <c r="I14" s="143"/>
     </row>
     <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="45" t="s">
@@ -6206,7 +6226,7 @@
       <c r="B15" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="139" t="s">
         <v>406</v>
       </c>
       <c r="D15" s="37" t="s">
@@ -6273,17 +6293,17 @@
       <c r="I17" s="105"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="144" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6307,8 +6327,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6661,7 +6681,7 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6848,8 +6868,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7071,8 +7091,8 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7430,8 +7450,8 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7673,8 +7693,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7926,8 +7946,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8260,7 +8280,7 @@
       <c r="H15" s="100"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="45" t="s">
         <v>234</v>
       </c>
